--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_adv.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_adv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C94579-0392-441E-B1AB-42DB52C37046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47774624-AC88-4D62-A621-93EE5CC819DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_adv.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_adv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47774624-AC88-4D62-A621-93EE5CC819DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327FB4A8-C854-48C8-AB83-78DD871A8BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
